--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/ALABAMA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/ALABAMA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1049"/>
+  <dimension ref="A1:D1043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C6">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C72">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C73">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C77">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C80">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C89">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C91">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C122">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C134">
@@ -2328,7 +2328,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2489,7 +2489,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C161">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C180">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C183">
@@ -2876,12 +2876,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C190">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C194">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C198">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C203">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C207">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C212">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C216">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C226">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C234">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C242">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C248">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C253">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C257">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C263">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C270">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C280">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C285">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C287">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C290">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C291">
@@ -4238,7 +4238,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C294">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C300">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C304">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C310">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C314">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C319">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C321">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C328">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C330">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C332">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C344">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C347">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C349">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C352">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C354">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C357">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C368">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C372">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C378">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C382">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C386">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C388">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C389">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C392">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C398">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C402">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C404">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C406">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C414">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C415">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C417">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C423">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C430">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C434">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C436">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C437">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C440">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C442">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C445">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C447">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C453">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C456">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C459">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C519">
@@ -7539,7 +7539,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C546">
@@ -7578,7 +7578,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C549">
@@ -7700,7 +7700,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C558">
@@ -7796,7 +7796,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C565">
@@ -7913,7 +7913,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C574">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C576">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C582">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C586">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C588">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C590">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C594">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C603">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C622">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C629">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C638">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C674">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C679">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C681">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C690">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C696">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C697">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C704">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C719">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C721">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C725">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C726">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C730">
@@ -10016,7 +10016,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C735">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C747">
@@ -10203,7 +10203,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C749">
@@ -10255,7 +10255,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C753">
@@ -10268,7 +10268,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C754">
@@ -10307,7 +10307,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C757">
@@ -10346,7 +10346,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C760">
@@ -10512,7 +10512,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C772">
@@ -10525,7 +10525,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C773">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C778">
@@ -10785,7 +10785,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C793">
@@ -10863,7 +10863,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C799">
@@ -10902,7 +10902,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C802">
@@ -10915,7 +10915,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C803">
@@ -10928,7 +10928,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C804">
@@ -11198,7 +11198,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C824">
@@ -11372,7 +11372,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C837">
@@ -11702,7 +11702,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C862">
@@ -11902,7 +11902,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C877">
@@ -11980,7 +11980,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C886">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C889">
@@ -12128,7 +12128,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C894">
@@ -12154,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C896">
@@ -12193,7 +12193,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C899">
@@ -12258,7 +12258,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C904">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C912">
@@ -12557,7 +12557,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C927">
@@ -12596,7 +12596,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C930">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C931">
@@ -12687,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C937">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C942">
@@ -12817,7 +12817,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C947">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C953">
@@ -12921,7 +12921,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C955">
@@ -12973,7 +12973,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C959">
@@ -12999,7 +12999,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C961">
@@ -13012,7 +13012,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C962">
@@ -13051,7 +13051,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C965">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C976">
@@ -13220,7 +13220,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C978">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1003">
@@ -13893,7 +13893,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1029">
@@ -14023,7 +14023,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1039">
@@ -14075,7 +14075,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1043">
@@ -14083,41 +14083,6 @@
       </c>
       <c r="D1043">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
